--- a/AfDD_2022_Annex_Table_Tab28.xlsx
+++ b/AfDD_2022_Annex_Table_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab28.xlsx
+++ b/AfDD_2022_Annex_Table_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab28.xlsx
+++ b/AfDD_2022_Annex_Table_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab28.xlsx
+++ b/AfDD_2022_Annex_Table_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: The ISO Survey of Certifications, International Organization for Standardization (updated 06/09/2021).</t>
@@ -2833,7 +2833,7 @@
         <v>151</v>
       </c>
       <c r="C92" s="40">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D92" s="40">
         <v>280</v>

--- a/AfDD_2022_Annex_Table_Tab28.xlsx
+++ b/AfDD_2022_Annex_Table_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab28.xlsx
+++ b/AfDD_2022_Annex_Table_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab28.xlsx
+++ b/AfDD_2022_Annex_Table_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab28.xlsx
+++ b/AfDD_2022_Annex_Table_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
     <t>Source: The ISO Survey of Certifications, International Organization for Standardization (updated 06/09/2021).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -3030,7 +3030,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
